--- a/URS/DbLayouts/L6-共同作業/CdPerformance.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdPerformance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27127F7B-7686-406F-B183-A651579BF3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088194E3-B4EE-4198-A721-9CDF2C088CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -261,11 +261,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>房貸專員_件數&gt;0時有值
-例: 100000=10萬計0.1件,最高1件</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>輸入比例
 例: 0=無 , 1=全部計算 , 0.5=撥款金額*1/2</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -319,10 +314,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>例: 0=無限制 , 600000=1件(60萬以上)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitPercent</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -343,10 +334,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BsOffrCntAmt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BsOffrPerccent</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -396,32 +383,6 @@
   </si>
   <si>
     <t>房貸專員_計件金額門檻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>房貸專員_計件金額門檻(動支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>增貸)</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -470,13 +431,18 @@
   <si>
     <t xml:space="preserve">WorkMonth &lt;= </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例: 600000=1件(60萬以上)
+例: 100000=10萬計0.1件,最高1件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -576,13 +542,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1088,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1070,7 @@
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>30</v>
@@ -1139,7 +1098,7 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
@@ -1218,20 +1177,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="D9" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E9" s="23">
         <v>6</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="291.60000000000002" x14ac:dyDescent="0.3">
@@ -1239,13 +1198,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="19">
         <v>1</v>
@@ -1260,10 +1219,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>29</v>
@@ -1283,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>29</v>
@@ -1306,10 +1265,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>29</v>
@@ -1329,10 +1288,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>29</v>
@@ -1352,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>29</v>
@@ -1375,10 +1334,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>29</v>
@@ -1398,10 +1357,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>29</v>
@@ -1421,10 +1380,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>29</v>
@@ -1444,10 +1403,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>29</v>
@@ -1467,10 +1426,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>29</v>
@@ -1490,10 +1449,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>29</v>
@@ -1508,15 +1467,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>14</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>29</v>
@@ -1528,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1536,45 +1495,43 @@
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="19">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F23" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>16</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="19">
-        <v>9</v>
-      </c>
-      <c r="F24" s="19">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1582,15 +1539,17 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="E25" s="19">
+        <v>6</v>
+      </c>
       <c r="F25" s="19" t="s">
         <v>10</v>
       </c>
@@ -1603,17 +1562,15 @@
         <v>18</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="19">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
         <v>10</v>
       </c>
@@ -1626,15 +1583,17 @@
         <v>19</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="E27" s="19">
+        <v>6</v>
+      </c>
       <c r="F27" s="19" t="s">
         <v>10</v>
       </c>
@@ -1643,27 +1602,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>20</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="19">
-        <v>6</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
@@ -1718,15 +1663,6 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1774,32 +1710,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
